--- a/data/trans_camb/P14B35-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B35-Habitat-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7301870308801864</v>
+        <v>0.7232496463499564</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.743664534712259</v>
+        <v>1.697055715179656</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.548777714894989</v>
+        <v>2.653137539228449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7257087871128585</v>
+        <v>0.6769360124200694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.541525856427254</v>
+        <v>4.487783102285322</v>
       </c>
     </row>
     <row r="7">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5815168212108532</v>
+        <v>0.4931086198940686</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09015309864813496</v>
+        <v>0.09010261082596017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.496012323740682</v>
+        <v>1.498506160135956</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.79869663880972</v>
+        <v>1.871977723286276</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8316925681266527</v>
+        <v>0.7431222408784171</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.346485589824665</v>
+        <v>3.399398037312384</v>
       </c>
     </row>
     <row r="13">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.049517363865971</v>
+        <v>1.057559214133517</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1255217616596014</v>
+        <v>0.1248959776569302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.992108141866649</v>
+        <v>3.061332182579189</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.113919682190085</v>
+        <v>3.140382338346967</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.11378344822713</v>
+        <v>1.100106818635526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.334392798798508</v>
+        <v>6.511216776281175</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>0.9414632197860323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.562146649674597</v>
+        <v>3.562146649674599</v>
       </c>
     </row>
     <row r="23">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2706057764484665</v>
+        <v>0.3445142167599544</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4465872875464914</v>
+        <v>0.4803607354708422</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.492427609034177</v>
+        <v>2.577941318332897</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.416356169643522</v>
+        <v>1.518923405168168</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.593443481815423</v>
+        <v>1.729563840835869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.856164956426928</v>
+        <v>4.958029490160108</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9240369375185556</v>
+        <v>0.9214256397767618</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2976919334980935</v>
+        <v>0.3163506210374268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.625662940003529</v>
+        <v>2.65779752464241</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.628327980634115</v>
+        <v>1.667096135905205</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7349480247965187</v>
+        <v>0.7730235636675035</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.940580678621171</v>
+        <v>3.941339884312332</v>
       </c>
     </row>
     <row r="31">
